--- a/doc/NBV2_GPIO.xlsx
+++ b/doc/NBV2_GPIO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Onedrive\科研要紧\NickelBird\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980DADB2-DB90-4FAA-B8A7-000D6F48FD1B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BFA3CB3-F610-4F73-BFE5-343CE2465E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="8160" windowWidth="21840" windowHeight="13140" xr2:uid="{9B99CC55-A333-4B3D-AAE7-60B2FBD2224A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{9B99CC55-A333-4B3D-AAE7-60B2FBD2224A}"/>
   </bookViews>
   <sheets>
     <sheet name="F405VG" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="357">
   <si>
     <t>Pin</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1184,10 +1184,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Function</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>AD7606_D4</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1252,10 +1248,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>AD7606_NC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>TF_D0</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1427,6 +1419,14 @@
   </si>
   <si>
     <t>OLED_SDA</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2 Function</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>V2.1 Function</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1849,10 +1849,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA0CE8E-C096-4ED1-A2A7-F1C4C19C1669}">
-  <dimension ref="A1:O101"/>
+  <dimension ref="A1:P101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O34" sqref="O34"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O88" sqref="O88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1861,10 +1861,10 @@
     <col min="5" max="7" width="14.25" customWidth="1"/>
     <col min="8" max="8" width="13.375" customWidth="1"/>
     <col min="9" max="14" width="14.25" customWidth="1"/>
-    <col min="15" max="15" width="24.375" customWidth="1"/>
+    <col min="15" max="16" width="24.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1905,10 +1905,13 @@
         <v>122</v>
       </c>
       <c r="O1" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+      <c r="P1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1916,10 +1919,13 @@
         <v>2</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+        <v>340</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1927,10 +1933,13 @@
         <v>3</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+        <v>339</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1938,10 +1947,13 @@
         <v>4</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+        <v>338</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1952,7 +1964,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1963,7 +1975,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1971,7 +1983,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1979,7 +1991,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1987,7 +1999,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1995,7 +2007,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2003,7 +2015,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2011,7 +2023,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2019,7 +2031,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2027,7 +2039,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2035,7 +2047,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2046,10 +2058,13 @@
         <v>282</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+        <v>343</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -2060,10 +2075,13 @@
         <v>283</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+        <v>343</v>
+      </c>
+      <c r="P17" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -2077,10 +2095,13 @@
         <v>148</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+        <v>343</v>
+      </c>
+      <c r="P18" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -2094,10 +2115,13 @@
         <v>149</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>343</v>
+      </c>
+      <c r="P19" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -2105,7 +2129,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2113,7 +2137,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -2121,7 +2145,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -2129,7 +2153,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -2152,10 +2176,13 @@
         <v>126</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+        <v>351</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -2175,10 +2202,13 @@
         <v>129</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+        <v>351</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -2201,10 +2231,13 @@
         <v>130</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+        <v>321</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -2227,10 +2260,13 @@
         <v>138</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>322</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -2238,7 +2274,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -2246,7 +2282,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -2266,10 +2302,13 @@
         <v>139</v>
       </c>
       <c r="O30" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -2289,10 +2328,13 @@
         <v>141</v>
       </c>
       <c r="O31" s="3" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+        <v>331</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -2312,10 +2354,13 @@
         <v>146</v>
       </c>
       <c r="O32" s="3" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+        <v>332</v>
+      </c>
+      <c r="P32" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -2335,10 +2380,13 @@
         <v>147</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+        <v>354</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -2349,10 +2397,13 @@
         <v>293</v>
       </c>
       <c r="O34" s="3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+        <v>333</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -2363,10 +2414,13 @@
         <v>294</v>
       </c>
       <c r="O35" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+        <v>344</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -2380,10 +2434,13 @@
         <v>150</v>
       </c>
       <c r="O36" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+        <v>345</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -2397,10 +2454,13 @@
         <v>151</v>
       </c>
       <c r="O37" s="2" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>346</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -2408,7 +2468,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -2422,10 +2482,13 @@
         <v>208</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+        <v>295</v>
+      </c>
+      <c r="P39" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -2436,10 +2499,13 @@
         <v>209</v>
       </c>
       <c r="O40" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+        <v>297</v>
+      </c>
+      <c r="P40" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -2453,10 +2519,13 @@
         <v>210</v>
       </c>
       <c r="O41" s="3" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+        <v>296</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -2467,10 +2536,13 @@
         <v>211</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+        <v>298</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -2484,10 +2556,13 @@
         <v>212</v>
       </c>
       <c r="O43" s="3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+        <v>299</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -2498,10 +2573,13 @@
         <v>213</v>
       </c>
       <c r="O44" s="3" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="P44" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -2515,10 +2593,13 @@
         <v>214</v>
       </c>
       <c r="O45" s="3" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+        <v>301</v>
+      </c>
+      <c r="P45" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -2532,10 +2613,13 @@
         <v>215</v>
       </c>
       <c r="O46" s="3" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+        <v>302</v>
+      </c>
+      <c r="P46" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -2546,10 +2630,13 @@
         <v>216</v>
       </c>
       <c r="O47" s="3" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+        <v>303</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2569,7 +2656,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2586,7 +2673,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="50" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -2594,7 +2681,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -2602,7 +2689,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -2619,10 +2706,13 @@
         <v>164</v>
       </c>
       <c r="O52" s="3" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+        <v>334</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -2636,10 +2726,13 @@
         <v>165</v>
       </c>
       <c r="O53" s="3" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+        <v>335</v>
+      </c>
+      <c r="P53" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -2653,10 +2746,13 @@
         <v>166</v>
       </c>
       <c r="O54" s="3" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+        <v>336</v>
+      </c>
+      <c r="P54" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -2670,10 +2766,13 @@
         <v>167</v>
       </c>
       <c r="O55" s="3" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+        <v>337</v>
+      </c>
+      <c r="P55" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -2687,10 +2786,13 @@
         <v>217</v>
       </c>
       <c r="O56" s="3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+        <v>304</v>
+      </c>
+      <c r="P56" s="3" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -2704,10 +2806,13 @@
         <v>218</v>
       </c>
       <c r="O57" s="3" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+        <v>305</v>
+      </c>
+      <c r="P57" s="3" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -2718,10 +2823,13 @@
         <v>219</v>
       </c>
       <c r="O58" s="3" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+        <v>306</v>
+      </c>
+      <c r="P58" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -2729,10 +2837,13 @@
         <v>64</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+        <v>347</v>
+      </c>
+      <c r="P59" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -2743,10 +2854,13 @@
         <v>168</v>
       </c>
       <c r="O60" s="3" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+        <v>348</v>
+      </c>
+      <c r="P60" s="3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -2757,10 +2871,13 @@
         <v>169</v>
       </c>
       <c r="O61" s="3" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+        <v>349</v>
+      </c>
+      <c r="P61" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -2774,10 +2891,13 @@
         <v>220</v>
       </c>
       <c r="O62" s="3" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+        <v>307</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -2791,10 +2911,13 @@
         <v>221</v>
       </c>
       <c r="O63" s="3" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+        <v>308</v>
+      </c>
+      <c r="P63" s="3" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -2814,10 +2937,13 @@
         <v>175</v>
       </c>
       <c r="O64" s="3" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+        <v>350</v>
+      </c>
+      <c r="P64" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -2839,8 +2965,11 @@
       <c r="O65" s="3" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -2853,14 +2982,14 @@
       <c r="G66" t="s">
         <v>180</v>
       </c>
-      <c r="N66" s="3" t="s">
+      <c r="N66" t="s">
         <v>181</v>
       </c>
-      <c r="O66" s="3" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -2876,14 +3005,14 @@
       <c r="H67" t="s">
         <v>184</v>
       </c>
-      <c r="N67" s="3" t="s">
+      <c r="N67" t="s">
         <v>183</v>
       </c>
-      <c r="O67" s="3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -2897,10 +3026,13 @@
         <v>185</v>
       </c>
       <c r="O68" s="3" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+        <v>353</v>
+      </c>
+      <c r="P68" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -2914,10 +3046,13 @@
         <v>187</v>
       </c>
       <c r="O69" s="3" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+        <v>319</v>
+      </c>
+      <c r="P69" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -2931,10 +3066,13 @@
         <v>189</v>
       </c>
       <c r="O70" s="3" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+        <v>320</v>
+      </c>
+      <c r="P70" s="3" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -2948,10 +3086,13 @@
         <v>190</v>
       </c>
       <c r="O71" s="3" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+        <v>342</v>
+      </c>
+      <c r="P71" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -2962,10 +3103,13 @@
         <v>191</v>
       </c>
       <c r="O72" s="3" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>341</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -2975,8 +3119,11 @@
       <c r="O73" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P73" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -2984,7 +3131,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="75" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -2992,7 +3139,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -3000,7 +3147,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -3010,8 +3157,11 @@
       <c r="O77" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="P77" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -3028,7 +3178,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -3044,14 +3194,14 @@
       <c r="L79" t="s">
         <v>126</v>
       </c>
-      <c r="N79" s="3" t="s">
+      <c r="N79" t="s">
         <v>193</v>
       </c>
-      <c r="O79" s="3" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P79" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -3067,14 +3217,14 @@
       <c r="L80" t="s">
         <v>129</v>
       </c>
-      <c r="N80" s="3" t="s">
+      <c r="N80" t="s">
         <v>195</v>
       </c>
-      <c r="O80" s="3" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="3" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -3087,14 +3237,14 @@
       <c r="L81" t="s">
         <v>196</v>
       </c>
-      <c r="N81" s="3" t="s">
+      <c r="N81" t="s">
         <v>197</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -3108,10 +3258,13 @@
         <v>222</v>
       </c>
       <c r="O82" s="3" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+        <v>317</v>
+      </c>
+      <c r="P82" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -3125,10 +3278,13 @@
         <v>223</v>
       </c>
       <c r="O83" s="3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+        <v>318</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -3138,14 +3294,14 @@
       <c r="L84" t="s">
         <v>199</v>
       </c>
-      <c r="N84" s="3" t="s">
+      <c r="N84" t="s">
         <v>200</v>
       </c>
-      <c r="O84" s="3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3156,7 +3312,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -3167,11 +3323,14 @@
         <v>225</v>
       </c>
       <c r="O86" s="3" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A87" s="3">
+        <v>309</v>
+      </c>
+      <c r="P86" s="3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
@@ -3180,14 +3339,11 @@
       <c r="K87" t="s">
         <v>130</v>
       </c>
-      <c r="N87" s="3" t="s">
+      <c r="N87" t="s">
         <v>226</v>
       </c>
-      <c r="O87" s="3" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3201,7 +3357,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -3212,10 +3368,13 @@
         <v>228</v>
       </c>
       <c r="O89" s="3" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+        <v>310</v>
+      </c>
+      <c r="P89" s="3" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -3232,10 +3391,13 @@
         <v>192</v>
       </c>
       <c r="O90" s="3" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+        <v>323</v>
+      </c>
+      <c r="P90" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -3252,10 +3414,13 @@
         <v>194</v>
       </c>
       <c r="O91" s="3" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+        <v>324</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -3275,10 +3440,13 @@
         <v>164</v>
       </c>
       <c r="O92" s="3" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+        <v>325</v>
+      </c>
+      <c r="P92" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -3298,10 +3466,13 @@
         <v>165</v>
       </c>
       <c r="O93" s="3" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+        <v>328</v>
+      </c>
+      <c r="P93" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -3321,10 +3492,13 @@
         <v>229</v>
       </c>
       <c r="O94" s="3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>329</v>
+      </c>
+      <c r="P94" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -3332,7 +3506,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -3355,10 +3529,13 @@
         <v>204</v>
       </c>
       <c r="O96" s="3" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+        <v>326</v>
+      </c>
+      <c r="P96" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -3384,10 +3561,13 @@
         <v>207</v>
       </c>
       <c r="O97" s="3" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+        <v>327</v>
+      </c>
+      <c r="P97" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -3398,10 +3578,13 @@
         <v>230</v>
       </c>
       <c r="O98" s="3" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+        <v>352</v>
+      </c>
+      <c r="P98" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -3412,10 +3595,13 @@
         <v>231</v>
       </c>
       <c r="O99" s="3" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="100" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>352</v>
+      </c>
+      <c r="P99" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -3423,7 +3609,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>100</v>
       </c>

--- a/doc/NBV2_GPIO.xlsx
+++ b/doc/NBV2_GPIO.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Onedrive\科研要紧\NickelBird\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BFA3CB3-F610-4F73-BFE5-343CE2465E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48D8279-D192-4022-8AA3-94D21E562998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{9B99CC55-A333-4B3D-AAE7-60B2FBD2224A}"/>
   </bookViews>
   <sheets>
     <sheet name="F405VG" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="539" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="377">
   <si>
     <t>Pin</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1380,20 +1381,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>AD7606_OSC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AD7607_OSC</t>
-  </si>
-  <si>
-    <t>AD7608_OSC</t>
-  </si>
-  <si>
-    <t>AD7606_RNG</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>AD7606_RST</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1427,6 +1414,102 @@
   </si>
   <si>
     <t>V2.1 Function</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SBLINK_TX</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SBLINK_RX</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AD7606_WR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED_R</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED_G</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LED_B</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXT_INT/CAP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXTI</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Function</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AD7606B_BUSY</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ENC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXT_INT0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXT_INT1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXT_INT2/CAP1</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXT_INT3/CAP2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CH</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AD7606B_CONV</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main Clock</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>PWM Ch1,2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXT_CAP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXT_TRIG</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AD7606_MODE_SENS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AD7606_CLK_SW</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1434,7 +1517,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1466,8 +1549,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1482,6 +1573,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -1509,7 +1605,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1519,8 +1615,11 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1533,10 +1632,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="3" builtinId="26"/>
     <cellStyle name="适中" xfId="2" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1851,8 +1954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA0CE8E-C096-4ED1-A2A7-F1C4C19C1669}">
   <dimension ref="A1:P101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O88" sqref="O88"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P36" sqref="P36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1905,10 +2008,10 @@
         <v>122</v>
       </c>
       <c r="O1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="P1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -2057,7 +2160,7 @@
       <c r="D16" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="O16" s="3" t="s">
+      <c r="O16" s="4" t="s">
         <v>343</v>
       </c>
       <c r="P16" s="3" t="s">
@@ -2074,7 +2177,7 @@
       <c r="D17" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="O17" s="3" t="s">
+      <c r="O17" s="4" t="s">
         <v>343</v>
       </c>
       <c r="P17" s="3" t="s">
@@ -2094,7 +2197,7 @@
       <c r="I18" t="s">
         <v>148</v>
       </c>
-      <c r="O18" s="3" t="s">
+      <c r="O18" s="4" t="s">
         <v>343</v>
       </c>
       <c r="P18" s="3" t="s">
@@ -2114,7 +2217,7 @@
       <c r="I19" t="s">
         <v>149</v>
       </c>
-      <c r="O19" s="3" t="s">
+      <c r="O19" s="4" t="s">
         <v>343</v>
       </c>
       <c r="P19" s="3" t="s">
@@ -2175,11 +2278,11 @@
       <c r="L24" t="s">
         <v>126</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>351</v>
+      <c r="O24" s="4" t="s">
+        <v>347</v>
       </c>
       <c r="P24" s="3" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
@@ -2201,11 +2304,11 @@
       <c r="L25" t="s">
         <v>129</v>
       </c>
-      <c r="O25" s="3" t="s">
-        <v>351</v>
+      <c r="O25" s="4" t="s">
+        <v>347</v>
       </c>
       <c r="P25" s="3" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
@@ -2231,9 +2334,9 @@
         <v>130</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="P26" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="P26" s="2" t="s">
         <v>321</v>
       </c>
     </row>
@@ -2260,9 +2363,9 @@
         <v>138</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="P27" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="P27" s="2" t="s">
         <v>322</v>
       </c>
     </row>
@@ -2380,10 +2483,10 @@
         <v>147</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="P33" s="3" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.2">
@@ -2404,27 +2507,21 @@
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A35" s="3">
+      <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" t="s">
         <v>37</v>
       </c>
       <c r="D35" t="s">
         <v>294</v>
       </c>
-      <c r="O35" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="P35" s="2" t="s">
-        <v>344</v>
-      </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" s="3">
+      <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" t="s">
         <v>38</v>
       </c>
       <c r="D36" t="s">
@@ -2433,18 +2530,12 @@
       <c r="F36" t="s">
         <v>150</v>
       </c>
-      <c r="O36" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="P36" s="2" t="s">
-        <v>345</v>
-      </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" s="3">
+      <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" t="s">
         <v>39</v>
       </c>
       <c r="D37" t="s">
@@ -2452,12 +2543,6 @@
       </c>
       <c r="F37" t="s">
         <v>151</v>
-      </c>
-      <c r="O37" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="P37" s="2" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="38" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2637,7 +2722,7 @@
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A48">
+      <c r="A48" s="3">
         <v>47</v>
       </c>
       <c r="B48" t="s">
@@ -2646,7 +2731,7 @@
       <c r="E48" t="s">
         <v>134</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48" s="3" t="s">
         <v>158</v>
       </c>
       <c r="I48" t="s">
@@ -2655,9 +2740,13 @@
       <c r="K48" t="s">
         <v>159</v>
       </c>
+      <c r="O48" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="P48" s="2"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A49">
+      <c r="A49" s="3">
         <v>48</v>
       </c>
       <c r="B49" t="s">
@@ -2666,12 +2755,16 @@
       <c r="E49" t="s">
         <v>135</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H49" s="3" t="s">
         <v>160</v>
       </c>
       <c r="K49" t="s">
         <v>161</v>
       </c>
+      <c r="O49" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="P49" s="2"/>
     </row>
     <row r="50" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
@@ -2830,17 +2923,11 @@
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A59" s="3">
+      <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" t="s">
         <v>64</v>
-      </c>
-      <c r="O59" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="P59" s="2" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2">
@@ -2854,10 +2941,10 @@
         <v>168</v>
       </c>
       <c r="O60" s="3" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="P60" s="3" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2">
@@ -2871,10 +2958,10 @@
         <v>169</v>
       </c>
       <c r="O61" s="3" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="P61" s="3" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2">
@@ -2937,10 +3024,10 @@
         <v>175</v>
       </c>
       <c r="O64" s="3" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="P64" s="3" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.2">
@@ -2973,7 +3060,7 @@
       <c r="A66" s="3">
         <v>65</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="3" t="s">
         <v>71</v>
       </c>
       <c r="F66" t="s">
@@ -2985,7 +3072,10 @@
       <c r="N66" t="s">
         <v>181</v>
       </c>
-      <c r="P66" s="3" t="s">
+      <c r="O66" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="P66" s="2" t="s">
         <v>311</v>
       </c>
     </row>
@@ -2993,7 +3083,7 @@
       <c r="A67" s="3">
         <v>66</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="3" t="s">
         <v>72</v>
       </c>
       <c r="F67" t="s">
@@ -3008,7 +3098,10 @@
       <c r="N67" t="s">
         <v>183</v>
       </c>
-      <c r="P67" s="3" t="s">
+      <c r="O67" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="P67" s="2" t="s">
         <v>312</v>
       </c>
     </row>
@@ -3026,10 +3119,10 @@
         <v>185</v>
       </c>
       <c r="O68" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="P68" s="3" t="s">
-        <v>353</v>
+        <v>358</v>
+      </c>
+      <c r="P68" s="2" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.2">
@@ -3046,9 +3139,9 @@
         <v>187</v>
       </c>
       <c r="O69" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="P69" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="P69" s="2" t="s">
         <v>319</v>
       </c>
     </row>
@@ -3066,9 +3159,9 @@
         <v>189</v>
       </c>
       <c r="O70" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="P70" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="P70" s="2" t="s">
         <v>320</v>
       </c>
     </row>
@@ -3179,7 +3272,7 @@
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A79" s="3">
+      <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
@@ -3197,12 +3290,12 @@
       <c r="N79" t="s">
         <v>193</v>
       </c>
-      <c r="P79" s="3" t="s">
+      <c r="P79" s="2" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A80" s="3">
+      <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
@@ -3220,12 +3313,12 @@
       <c r="N80" t="s">
         <v>195</v>
       </c>
-      <c r="P80" s="3" t="s">
+      <c r="P80" s="2" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A81" s="3">
+      <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
@@ -3240,7 +3333,7 @@
       <c r="N81" t="s">
         <v>197</v>
       </c>
-      <c r="P81" s="3" t="s">
+      <c r="P81" s="2" t="s">
         <v>316</v>
       </c>
     </row>
@@ -3288,7 +3381,7 @@
       <c r="A84" s="3">
         <v>83</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="3" t="s">
         <v>92</v>
       </c>
       <c r="L84" t="s">
@@ -3297,20 +3390,27 @@
       <c r="N84" t="s">
         <v>200</v>
       </c>
-      <c r="P84" s="3" t="s">
+      <c r="O84" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="P84" s="2" t="s">
         <v>315</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A85">
+      <c r="A85" s="3">
         <v>84</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="3" t="s">
         <v>93</v>
       </c>
       <c r="N85" t="s">
         <v>224</v>
       </c>
+      <c r="O85" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="P85" s="2"/>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
@@ -3330,7 +3430,7 @@
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A87">
+      <c r="A87" s="3">
         <v>86</v>
       </c>
       <c r="B87" t="s">
@@ -3339,15 +3439,19 @@
       <c r="K87" t="s">
         <v>130</v>
       </c>
-      <c r="N87" t="s">
+      <c r="N87" s="3" t="s">
         <v>226</v>
       </c>
+      <c r="O87" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="P87" s="2"/>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A88">
+      <c r="A88" s="3">
         <v>87</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="3" t="s">
         <v>96</v>
       </c>
       <c r="K88" t="s">
@@ -3356,6 +3460,10 @@
       <c r="N88" t="s">
         <v>227</v>
       </c>
+      <c r="O88" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="P88" s="2"/>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
@@ -3390,7 +3498,7 @@
       <c r="J90" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="O90" s="3" t="s">
+      <c r="O90" s="4" t="s">
         <v>323</v>
       </c>
       <c r="P90" s="3" t="s">
@@ -3413,7 +3521,7 @@
       <c r="J91" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="O91" s="3" t="s">
+      <c r="O91" s="4" t="s">
         <v>324</v>
       </c>
       <c r="P91" s="3" t="s">
@@ -3439,7 +3547,7 @@
       <c r="M92" t="s">
         <v>164</v>
       </c>
-      <c r="O92" s="3" t="s">
+      <c r="O92" s="4" t="s">
         <v>325</v>
       </c>
       <c r="P92" s="3" t="s">
@@ -3465,7 +3573,7 @@
       <c r="M93" t="s">
         <v>165</v>
       </c>
-      <c r="O93" s="3" t="s">
+      <c r="O93" s="4" t="s">
         <v>328</v>
       </c>
       <c r="P93" s="3" t="s">
@@ -3491,7 +3599,7 @@
       <c r="N94" t="s">
         <v>229</v>
       </c>
-      <c r="O94" s="3" t="s">
+      <c r="O94" s="4" t="s">
         <v>329</v>
       </c>
       <c r="P94" s="3" t="s">
@@ -3510,16 +3618,16 @@
       <c r="A96" s="3">
         <v>95</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F96" s="3" t="s">
         <v>171</v>
       </c>
       <c r="G96" t="s">
         <v>205</v>
       </c>
-      <c r="H96" s="3" t="s">
+      <c r="H96" t="s">
         <v>202</v>
       </c>
       <c r="M96" t="s">
@@ -3528,10 +3636,10 @@
       <c r="N96" t="s">
         <v>204</v>
       </c>
-      <c r="O96" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="P96" s="3" t="s">
+      <c r="O96" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="P96" s="2" t="s">
         <v>326</v>
       </c>
     </row>
@@ -3539,16 +3647,16 @@
       <c r="A97" s="3">
         <v>96</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F97" t="s">
+      <c r="F97" s="3" t="s">
         <v>173</v>
       </c>
       <c r="G97" t="s">
         <v>206</v>
       </c>
-      <c r="H97" s="3" t="s">
+      <c r="H97" t="s">
         <v>203</v>
       </c>
       <c r="I97" t="s">
@@ -3560,10 +3668,10 @@
       <c r="N97" t="s">
         <v>207</v>
       </c>
-      <c r="O97" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="P97" s="3" t="s">
+      <c r="O97" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="P97" s="2" t="s">
         <v>327</v>
       </c>
     </row>
@@ -3577,11 +3685,11 @@
       <c r="N98" t="s">
         <v>230</v>
       </c>
-      <c r="O98" s="3" t="s">
-        <v>352</v>
+      <c r="O98" s="4" t="s">
+        <v>348</v>
       </c>
       <c r="P98" s="3" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.2">
@@ -3594,11 +3702,11 @@
       <c r="N99" t="s">
         <v>231</v>
       </c>
-      <c r="O99" s="3" t="s">
-        <v>352</v>
+      <c r="O99" s="4" t="s">
+        <v>348</v>
       </c>
       <c r="P99" s="3" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
     </row>
     <row r="100" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -3625,6 +3733,238 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5260BC-F64C-4107-87D8-5CD17FB78CFB}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9.125" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="7" max="7" width="20.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E1" t="s">
+        <v>368</v>
+      </c>
+      <c r="F1" t="s">
+        <v>369</v>
+      </c>
+      <c r="G1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>3</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="E5" s="3">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3">
+        <v>34</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="E6" s="3">
+        <v>5</v>
+      </c>
+      <c r="F6" s="3">
+        <v>12</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="E8" s="3">
+        <v>7</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="E10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="E15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8831D72-7A16-4484-83A3-B6C17C98B9BA}">
   <dimension ref="A1:E36"/>
   <sheetViews>

--- a/doc/NBV2_GPIO.xlsx
+++ b/doc/NBV2_GPIO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Onedrive\科研要紧\NickelBird\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/971f4268de3e2582/科研要紧/NickelBird/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D48D8279-D192-4022-8AA3-94D21E562998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{D48D8279-D192-4022-8AA3-94D21E562998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DE3560A8-DE55-4325-8308-2A1ED38195DE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{9B99CC55-A333-4B3D-AAE7-60B2FBD2224A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{9B99CC55-A333-4B3D-AAE7-60B2FBD2224A}"/>
   </bookViews>
   <sheets>
     <sheet name="F405VG" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="380">
   <si>
     <t>Pin</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1501,15 +1501,27 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>EXT_TRIG</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>AD7606_MODE_SENS</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>AD7606_CLK_SW</t>
+    <t>EXT_TRIG_EN</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXT_TRIG_CLK</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUX_PWM_OUT</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUX PWM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AD7606_CONV_SEL</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1954,20 +1966,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA0CE8E-C096-4ED1-A2A7-F1C4C19C1669}">
   <dimension ref="A1:P101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P36" sqref="P36"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="4" max="4" width="12.875" customWidth="1"/>
-    <col min="5" max="7" width="14.25" customWidth="1"/>
-    <col min="8" max="8" width="13.375" customWidth="1"/>
-    <col min="9" max="14" width="14.25" customWidth="1"/>
-    <col min="15" max="16" width="24.375" customWidth="1"/>
+    <col min="4" max="4" width="12.86328125" customWidth="1"/>
+    <col min="5" max="7" width="14.265625" customWidth="1"/>
+    <col min="8" max="8" width="13.3984375" customWidth="1"/>
+    <col min="9" max="14" width="14.265625" customWidth="1"/>
+    <col min="15" max="16" width="24.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2014,7 +2026,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2028,7 +2040,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2042,7 +2054,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2056,29 +2068,37 @@
         <v>338</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="3" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6">
+      <c r="O5" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G6" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O6" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2086,7 +2106,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2094,7 +2114,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2102,7 +2122,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -2110,7 +2130,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2118,7 +2138,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -2126,7 +2146,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -2134,7 +2154,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -2142,7 +2162,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -2150,7 +2170,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -2167,7 +2187,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -2184,7 +2204,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -2204,7 +2224,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -2224,7 +2244,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -2232,7 +2252,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -2240,7 +2260,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -2248,7 +2268,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -2256,7 +2276,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -2285,7 +2305,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -2311,7 +2331,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -2340,7 +2360,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -2369,7 +2389,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -2377,7 +2397,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -2385,7 +2405,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -2411,7 +2431,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -2437,7 +2457,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -2463,7 +2483,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -2489,7 +2509,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -2506,7 +2526,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2517,8 +2537,8 @@
         <v>294</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A36" s="3">
         <v>35</v>
       </c>
       <c r="B36" t="s">
@@ -2527,12 +2547,15 @@
       <c r="D36" t="s">
         <v>258</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="3" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37">
+      <c r="O36" s="4" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A37" s="3">
         <v>36</v>
       </c>
       <c r="B37" t="s">
@@ -2541,11 +2564,14 @@
       <c r="D37" t="s">
         <v>260</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="3" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="38" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="O37" s="4" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -2553,7 +2579,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -2573,7 +2599,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -2590,7 +2616,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -2610,7 +2636,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -2627,7 +2653,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -2647,7 +2673,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -2664,7 +2690,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -2684,7 +2710,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -2704,7 +2730,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -2721,7 +2747,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -2745,7 +2771,7 @@
       </c>
       <c r="P48" s="2"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -2766,7 +2792,7 @@
       </c>
       <c r="P49" s="2"/>
     </row>
-    <row r="50" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -2774,7 +2800,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -2782,7 +2808,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -2805,7 +2831,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -2825,7 +2851,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -2845,7 +2871,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -2865,7 +2891,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -2885,7 +2911,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -2905,7 +2931,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -2922,7 +2948,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2930,7 +2956,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -2947,7 +2973,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -2964,7 +2990,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -2984,7 +3010,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -3004,17 +3030,17 @@
         <v>308</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A64" s="3">
         <v>63</v>
       </c>
       <c r="B64" t="s">
         <v>69</v>
       </c>
-      <c r="F64" s="3" t="s">
+      <c r="F64" t="s">
         <v>144</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G64" s="3" t="s">
         <v>174</v>
       </c>
       <c r="L64" t="s">
@@ -3023,14 +3049,14 @@
       <c r="N64" t="s">
         <v>175</v>
       </c>
-      <c r="O64" s="3" t="s">
+      <c r="O64" s="2" t="s">
         <v>346</v>
       </c>
       <c r="P64" s="3" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -3056,7 +3082,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -3079,7 +3105,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -3105,7 +3131,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -3125,7 +3151,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -3145,7 +3171,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -3165,7 +3191,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -3185,7 +3211,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -3202,7 +3228,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="73" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -3216,7 +3242,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="74" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -3224,7 +3250,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="75" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -3232,7 +3258,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -3240,7 +3266,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -3254,7 +3280,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -3271,7 +3297,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3294,7 +3320,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3317,7 +3343,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3337,7 +3363,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -3357,7 +3383,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -3377,7 +3403,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -3391,13 +3417,13 @@
         <v>200</v>
       </c>
       <c r="O84" s="3" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="P84" s="2" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -3408,11 +3434,11 @@
         <v>224</v>
       </c>
       <c r="O85" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="P85" s="2"/>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -3429,7 +3455,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -3447,11 +3473,11 @@
       </c>
       <c r="P87" s="2"/>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A88" s="3">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A88">
         <v>87</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" t="s">
         <v>96</v>
       </c>
       <c r="K88" t="s">
@@ -3460,12 +3486,9 @@
       <c r="N88" t="s">
         <v>227</v>
       </c>
-      <c r="O88" s="3" t="s">
-        <v>374</v>
-      </c>
       <c r="P88" s="2"/>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -3482,7 +3505,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -3505,7 +3528,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -3528,7 +3551,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -3554,7 +3577,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -3580,7 +3603,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -3606,7 +3629,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="95" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -3614,7 +3637,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -3643,7 +3666,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -3675,7 +3698,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -3692,7 +3715,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -3709,7 +3732,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="100" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -3717,7 +3740,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -3737,17 +3760,17 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="9.125" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="7" max="7" width="20.125" customWidth="1"/>
+    <col min="2" max="2" width="9.1328125" customWidth="1"/>
+    <col min="3" max="3" width="17.46484375" customWidth="1"/>
+    <col min="7" max="7" width="20.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>360</v>
       </c>
@@ -3767,7 +3790,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -3781,7 +3804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -3795,7 +3818,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3803,13 +3826,13 @@
         <v>3</v>
       </c>
       <c r="F4" s="3">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3823,7 +3846,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3837,7 +3860,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3845,15 +3868,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>96</v>
+        <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="E8" s="3">
         <v>7</v>
@@ -3863,15 +3886,19 @@
         <v>371</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -3881,11 +3908,17 @@
       <c r="C10" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -3899,7 +3932,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3907,7 +3940,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -3921,7 +3954,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3929,7 +3962,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -3943,17 +3976,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3972,14 +4005,14 @@
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="42.125" customWidth="1"/>
-    <col min="4" max="4" width="38.625" customWidth="1"/>
-    <col min="5" max="5" width="10.375" customWidth="1"/>
+    <col min="3" max="3" width="42.1328125" customWidth="1"/>
+    <col min="4" max="4" width="38.59765625" customWidth="1"/>
+    <col min="5" max="5" width="10.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>232</v>
       </c>
@@ -3996,7 +4029,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -4007,7 +4040,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -4018,7 +4051,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -4029,7 +4062,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -4040,7 +4073,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -4051,7 +4084,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -4062,7 +4095,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>32</v>
       </c>
@@ -4073,7 +4106,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -4084,7 +4117,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>73</v>
       </c>
@@ -4098,7 +4131,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>75</v>
       </c>
@@ -4112,7 +4145,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>77</v>
       </c>
@@ -4126,7 +4159,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>79</v>
       </c>
@@ -4140,7 +4173,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>81</v>
       </c>
@@ -4151,7 +4184,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>83</v>
       </c>
@@ -4164,7 +4197,7 @@
       </c>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>85</v>
       </c>
@@ -4177,7 +4210,7 @@
       </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>256</v>
       </c>
@@ -4190,7 +4223,7 @@
       </c>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -4201,7 +4234,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -4212,7 +4245,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
         <v>40</v>
       </c>
@@ -4223,7 +4256,7 @@
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>262</v>
       </c>
@@ -4236,7 +4269,7 @@
       </c>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
         <v>264</v>
       </c>
@@ -4249,7 +4282,7 @@
       </c>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>100</v>
       </c>
@@ -4260,7 +4293,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>102</v>
       </c>
@@ -4277,7 +4310,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>104</v>
       </c>
@@ -4294,7 +4327,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>107</v>
       </c>
@@ -4308,7 +4341,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>109</v>
       </c>
@@ -4322,7 +4355,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -4339,7 +4372,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>52</v>
       </c>
@@ -4356,7 +4389,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>55</v>
       </c>
@@ -4370,7 +4403,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>56</v>
       </c>
@@ -4384,7 +4417,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>57</v>
       </c>
@@ -4395,7 +4428,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>59</v>
       </c>
@@ -4406,7 +4439,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>8</v>
       </c>
@@ -4417,7 +4450,7 @@
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
         <v>9</v>
       </c>
@@ -4428,7 +4461,7 @@
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
         <v>10</v>
       </c>

--- a/doc/NBV2_GPIO.xlsx
+++ b/doc/NBV2_GPIO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/971f4268de3e2582/科研要紧/NickelBird/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="115" documentId="13_ncr:1_{D48D8279-D192-4022-8AA3-94D21E562998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2E8EED9-6080-4012-92E6-40D9406AD0B4}"/>
+  <xr:revisionPtr revIDLastSave="171" documentId="13_ncr:1_{D48D8279-D192-4022-8AA3-94D21E562998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4809B593-B433-4437-8621-7CFF93634951}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="7965" windowWidth="21840" windowHeight="13020" xr2:uid="{9B99CC55-A333-4B3D-AAE7-60B2FBD2224A}"/>
+    <workbookView xWindow="-21600" yWindow="7860" windowWidth="21840" windowHeight="13020" xr2:uid="{9B99CC55-A333-4B3D-AAE7-60B2FBD2224A}"/>
   </bookViews>
   <sheets>
     <sheet name="F405VG" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="329">
   <si>
     <t>Pin</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1318,6 +1318,38 @@
   </si>
   <si>
     <t>SYNC_EN_INV</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Driver file</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ad7606fsmc</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sampling</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>mb85rs</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>led</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>dac</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>oled</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>extin</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1742,10 +1774,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA0CE8E-C096-4ED1-A2A7-F1C4C19C1669}">
-  <dimension ref="A1:P101"/>
+  <dimension ref="A1:Q101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O79" sqref="O79"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="6930" ySplit="855" topLeftCell="J82" activePane="bottomRight"/>
+      <selection activeCell="O62" sqref="O62"/>
+      <selection pane="topRight" activeCell="P7" sqref="P7"/>
+      <selection pane="bottomLeft" activeCell="B99" sqref="B99"/>
+      <selection pane="bottomRight" activeCell="N97" sqref="N97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1755,9 +1791,10 @@
     <col min="8" max="8" width="13.375" customWidth="1"/>
     <col min="9" max="14" width="14.25" customWidth="1"/>
     <col min="15" max="16" width="24.375" customWidth="1"/>
+    <col min="17" max="17" width="12.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1803,8 +1840,11 @@
       <c r="P1" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1818,7 +1858,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1832,7 +1872,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1846,7 +1886,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1860,8 +1900,11 @@
         <v>306</v>
       </c>
       <c r="P5" s="1"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q5" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1875,8 +1918,11 @@
         <v>305</v>
       </c>
       <c r="P6" s="1"/>
-    </row>
-    <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q6" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1884,7 +1930,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1892,7 +1938,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1900,7 +1946,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1908,7 +1954,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1916,7 +1962,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1924,7 +1970,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1935,7 +1981,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1946,7 +1992,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1957,7 +2003,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1973,8 +2019,11 @@
       <c r="P16" s="1" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q16" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1990,8 +2039,11 @@
       <c r="P17" s="1" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q17" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2008,7 +2060,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2025,7 +2077,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="20" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2033,7 +2085,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2041,7 +2093,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2049,7 +2101,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2057,7 +2109,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -2086,7 +2138,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -2112,7 +2164,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -2141,7 +2193,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -2170,7 +2222,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2178,7 +2230,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2186,7 +2238,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -2211,8 +2263,11 @@
       <c r="P30" s="1" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q30" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -2237,8 +2292,11 @@
       <c r="P31" s="2" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q31" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -2263,8 +2321,11 @@
       <c r="P32" s="2" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q32" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -2289,8 +2350,11 @@
       <c r="P33" s="2" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q33" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -2306,8 +2370,11 @@
       <c r="P34" s="2" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q34" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -2321,8 +2388,11 @@
         <v>262</v>
       </c>
       <c r="P35" s="1"/>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q35" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -2340,7 +2410,7 @@
       </c>
       <c r="P36" s="1"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -2358,7 +2428,7 @@
       </c>
       <c r="P37" s="1"/>
     </row>
-    <row r="38" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -2366,7 +2436,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -2385,8 +2455,11 @@
       <c r="P39" s="2" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q39" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -2402,8 +2475,11 @@
       <c r="P40" s="2" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q40" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -2422,8 +2498,11 @@
       <c r="P41" s="2" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q41" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -2439,8 +2518,11 @@
       <c r="P42" s="2" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q42" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -2459,8 +2541,11 @@
       <c r="P43" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q43" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -2476,8 +2561,11 @@
       <c r="P44" s="2" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q44" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -2496,8 +2584,11 @@
       <c r="P45" s="2" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q45" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -2516,8 +2607,11 @@
       <c r="P46" s="2" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q46" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -2533,8 +2627,11 @@
       <c r="P47" s="2" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q47" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -2558,7 +2655,7 @@
       </c>
       <c r="P48" s="1"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -2579,7 +2676,7 @@
       </c>
       <c r="P49" s="1"/>
     </row>
-    <row r="50" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -2587,7 +2684,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -2595,7 +2692,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -2617,8 +2714,11 @@
       <c r="P52" s="2" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q52" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -2637,8 +2737,11 @@
       <c r="P53" s="2" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q53" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -2657,8 +2760,11 @@
       <c r="P54" s="2" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q54" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -2677,8 +2783,11 @@
       <c r="P55" s="2" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q55" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -2697,8 +2806,11 @@
       <c r="P56" s="2" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q56" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -2717,8 +2829,11 @@
       <c r="P57" s="2" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q57" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -2734,8 +2849,11 @@
       <c r="P58" s="2" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q58" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2743,7 +2861,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -2759,8 +2877,11 @@
       <c r="P60" s="2" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q60" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -2776,8 +2897,11 @@
       <c r="P61" s="2" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q61" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -2796,8 +2920,11 @@
       <c r="P62" s="2" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q62" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -2816,8 +2943,11 @@
       <c r="P63" s="2" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q63" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -2842,8 +2972,11 @@
       <c r="P64" s="2" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q64" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -2869,7 +3002,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -2891,8 +3024,11 @@
       <c r="P66" s="1" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q66" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -2917,8 +3053,11 @@
       <c r="P67" s="1" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q67" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -2937,8 +3076,11 @@
       <c r="P68" s="1" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q68" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -2958,7 +3100,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -2978,7 +3120,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -2998,7 +3140,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -3015,7 +3157,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="73" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -3029,7 +3171,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="74" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -3037,7 +3179,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="75" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -3045,7 +3187,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -3053,7 +3195,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="77" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -3067,7 +3209,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -3088,7 +3230,7 @@
       </c>
       <c r="P78" s="1"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -3114,7 +3256,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -3140,7 +3282,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -3163,7 +3305,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -3182,8 +3324,11 @@
       <c r="P82" s="2" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q82" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -3202,8 +3347,11 @@
       <c r="P83" s="2" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q83" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -3222,8 +3370,11 @@
       <c r="P84" s="1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q84" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -3237,8 +3388,11 @@
         <v>304</v>
       </c>
       <c r="P85" s="1"/>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q85" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -3254,8 +3408,11 @@
       <c r="P86" s="2" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q86" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -3272,8 +3429,11 @@
         <v>286</v>
       </c>
       <c r="P87" s="1"/>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q87" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -3290,8 +3450,11 @@
         <v>315</v>
       </c>
       <c r="P88" s="1"/>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q88" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -3307,8 +3470,11 @@
       <c r="P89" s="2" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q89" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -3331,7 +3497,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -3354,7 +3520,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -3380,7 +3546,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -3406,7 +3572,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -3432,7 +3598,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="95" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -3440,7 +3606,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -3468,8 +3634,11 @@
       <c r="P96" s="1" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q96" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -3500,8 +3669,11 @@
       <c r="P97" s="1" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q97" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -3517,8 +3689,11 @@
       <c r="P98" s="2" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q98" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -3534,8 +3709,11 @@
       <c r="P99" s="2" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="100" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q99" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -3543,7 +3721,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -3563,7 +3741,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3696,7 +3874,9 @@
       <c r="E9" s="2">
         <v>8</v>
       </c>
-      <c r="F9" s="2"/>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
       <c r="G9" s="2" t="s">
         <v>300</v>
       </c>

--- a/doc/NBV2_GPIO.xlsx
+++ b/doc/NBV2_GPIO.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/971f4268de3e2582/科研要紧/NickelBird/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="171" documentId="13_ncr:1_{D48D8279-D192-4022-8AA3-94D21E562998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4809B593-B433-4437-8621-7CFF93634951}"/>
+  <xr:revisionPtr revIDLastSave="366" documentId="13_ncr:1_{D48D8279-D192-4022-8AA3-94D21E562998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60E99AF3-0EFF-4FB0-A944-F25287FE9ECE}"/>
   <bookViews>
-    <workbookView xWindow="-21600" yWindow="7860" windowWidth="21840" windowHeight="13020" xr2:uid="{9B99CC55-A333-4B3D-AAE7-60B2FBD2224A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="1" activeTab="2" xr2:uid="{9B99CC55-A333-4B3D-AAE7-60B2FBD2224A}"/>
   </bookViews>
   <sheets>
     <sheet name="F405VG" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Peripheral" sheetId="3" r:id="rId2"/>
+    <sheet name="SBLink" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="378">
   <si>
     <t>Pin</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1350,6 +1351,202 @@
   </si>
   <si>
     <t>extin</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>usart</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>keyboard</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>pwm</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>sblink</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>keyboard,main</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Heartbeat</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sensor_Data</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADCData</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>float[4]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SensorData</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Size</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FieldName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FieldSize</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sensor_Data(Old)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int16[8]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>空白心跳包</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>原型机采样数据包，已弃用</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint16[2]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8路16位ADC原始数据，默认满量程±5V</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2路12位ADC原始数据，默认满量程0-3.3V</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint16[4]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4路直接使用的数据</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1硬件采样数据包</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>4路12位ADC原始数据，默认满量程0-3.3V</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sensor_Data_V2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int16[16]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>16路16位ADC原始数据</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint16</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frequency</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>采样频率</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>uint8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reserved</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>预留</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>采样配置信息</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AD7606_RNG_SENS</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Example</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SamplingConfig</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecordEnabled</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[5:3]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[2:0]</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC1 Range</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC2 Range</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否记录本包中的数据</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>9-16通道的量程范围</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-8通道的量程范围</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1421,12 +1618,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1444,7 +1656,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1456,6 +1668,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1475,6 +1696,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1776,12 +2001,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA0CE8E-C096-4ED1-A2A7-F1C4C19C1669}">
   <dimension ref="A1:Q101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6930" ySplit="855" topLeftCell="J82" activePane="bottomRight"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="6930" ySplit="855" topLeftCell="J1" activePane="bottomRight"/>
       <selection activeCell="O62" sqref="O62"/>
-      <selection pane="topRight" activeCell="P7" sqref="P7"/>
-      <selection pane="bottomLeft" activeCell="B99" sqref="B99"/>
-      <selection pane="bottomRight" activeCell="N97" sqref="N97"/>
+      <selection pane="topRight" activeCell="Q1" sqref="Q1"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8:B8"/>
+      <selection pane="bottomRight" activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1857,6 +2082,9 @@
       <c r="P2" s="2" t="s">
         <v>272</v>
       </c>
+      <c r="Q2" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
@@ -1871,6 +2099,9 @@
       <c r="P3" s="2" t="s">
         <v>271</v>
       </c>
+      <c r="Q3" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
@@ -1885,6 +2116,9 @@
       <c r="P4" s="2" t="s">
         <v>270</v>
       </c>
+      <c r="Q4" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
@@ -1931,12 +2165,16 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="O8" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="P8" s="1"/>
     </row>
     <row r="9" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
@@ -2137,6 +2375,9 @@
       <c r="P24" s="2" t="s">
         <v>279</v>
       </c>
+      <c r="Q24" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
@@ -2163,6 +2404,9 @@
       <c r="P25" s="2" t="s">
         <v>279</v>
       </c>
+      <c r="Q25" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
@@ -2192,6 +2436,9 @@
       <c r="P26" s="1" t="s">
         <v>253</v>
       </c>
+      <c r="Q26" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
@@ -2221,6 +2468,9 @@
       <c r="P27" s="1" t="s">
         <v>254</v>
       </c>
+      <c r="Q27" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="28" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
@@ -2409,6 +2659,9 @@
         <v>307</v>
       </c>
       <c r="P36" s="1"/>
+      <c r="Q36" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
@@ -2427,6 +2680,9 @@
         <v>307</v>
       </c>
       <c r="P37" s="1"/>
+      <c r="Q37" t="s">
+        <v>331</v>
+      </c>
     </row>
     <row r="38" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
@@ -3001,6 +3257,9 @@
       <c r="P65" s="2" t="s">
         <v>210</v>
       </c>
+      <c r="Q65" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
@@ -3099,6 +3358,9 @@
       <c r="P69" s="1" t="s">
         <v>251</v>
       </c>
+      <c r="Q69" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
@@ -3119,6 +3381,9 @@
       <c r="P70" s="1" t="s">
         <v>252</v>
       </c>
+      <c r="Q70" t="s">
+        <v>329</v>
+      </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
@@ -3229,6 +3494,9 @@
         <v>273</v>
       </c>
       <c r="P78" s="1"/>
+      <c r="Q78" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
@@ -3255,6 +3523,9 @@
       <c r="P79" s="1" t="s">
         <v>245</v>
       </c>
+      <c r="Q79" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
@@ -3389,7 +3660,7 @@
       </c>
       <c r="P85" s="1"/>
       <c r="Q85" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.2">
@@ -3449,7 +3720,9 @@
       <c r="O88" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="P88" s="1"/>
+      <c r="P88" s="2" t="s">
+        <v>242</v>
+      </c>
       <c r="Q88" t="s">
         <v>322</v>
       </c>
@@ -3466,9 +3739,6 @@
       </c>
       <c r="O89" s="2" t="s">
         <v>316</v>
-      </c>
-      <c r="P89" s="2" t="s">
-        <v>242</v>
       </c>
       <c r="Q89" t="s">
         <v>322</v>
@@ -3738,20 +4008,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5260BC-F64C-4107-87D8-5CD17FB78CFB}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A8" sqref="A8:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="9.125" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="7" max="7" width="20.125" customWidth="1"/>
+    <col min="3" max="4" width="17.5" customWidth="1"/>
+    <col min="8" max="9" width="20.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>291</v>
       </c>
@@ -3761,17 +4031,23 @@
       <c r="C1" t="s">
         <v>292</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F1" t="s">
         <v>298</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>299</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -3781,11 +4057,14 @@
       <c r="C2" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="E2">
+      <c r="D2" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="F2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -3795,61 +4074,67 @@
       <c r="C3" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="E3">
+      <c r="D3" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="F3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="E4" s="2">
+      <c r="F4" s="2">
         <v>3</v>
       </c>
-      <c r="F4" s="2">
+      <c r="G4" s="2">
         <v>34</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>4</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <v>34</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>5</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="2">
         <v>12</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -3859,29 +4144,32 @@
       <c r="C8" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="E8" s="2">
+      <c r="D8" s="2"/>
+      <c r="F8" s="2">
         <v>7</v>
       </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="2"/>
+      <c r="H8" s="2" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="E9" s="2">
+      <c r="F9" s="2">
         <v>8</v>
       </c>
-      <c r="F9" s="2">
+      <c r="G9" s="2">
         <v>1</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -3891,17 +4179,19 @@
       <c r="C10" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="E10" s="2">
+      <c r="D10" s="2"/>
+      <c r="F10" s="2">
         <v>9</v>
       </c>
-      <c r="F10" s="2">
+      <c r="G10" s="2">
         <v>1</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -3911,11 +4201,12 @@
       <c r="C11" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="E11">
+      <c r="D11" s="2"/>
+      <c r="F11">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -3925,27 +4216,30 @@
       <c r="C12" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="E12">
+      <c r="D12" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="F12">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -3955,11 +4249,12 @@
       <c r="C15" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="E15">
+      <c r="D15" s="2"/>
+      <c r="F15">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -3972,6 +4267,318 @@
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73F016A4-B1D3-4DD6-A607-D0EBB6640462}">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="21" customWidth="1"/>
+    <col min="4" max="4" width="42.875" customWidth="1"/>
+    <col min="7" max="7" width="18.75" customWidth="1"/>
+    <col min="8" max="8" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F3" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>0</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="F4" s="4">
+        <v>7</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F5" s="4">
+        <v>6</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>1</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="C6" s="5">
+        <v>36</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C7" s="4">
+        <v>16</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C8" s="4">
+        <v>4</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C9" s="4">
+        <v>16</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>2</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="C11" s="5">
+        <v>40</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C12" s="4">
+        <v>16</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C13" s="4">
+        <v>8</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C14" s="4">
+        <v>16</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="5">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="C16" s="5">
+        <v>48</v>
+      </c>
+      <c r="D16" s="5"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C17" s="4">
+        <v>32</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C18" s="4">
+        <v>16</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="C19" s="4">
+        <v>2</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>364</v>
       </c>
     </row>
   </sheetData>

--- a/doc/NBV2_GPIO.xlsx
+++ b/doc/NBV2_GPIO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/971f4268de3e2582/科研要紧/NickelBird/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="366" documentId="13_ncr:1_{D48D8279-D192-4022-8AA3-94D21E562998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{60E99AF3-0EFF-4FB0-A944-F25287FE9ECE}"/>
+  <xr:revisionPtr revIDLastSave="411" documentId="13_ncr:1_{D48D8279-D192-4022-8AA3-94D21E562998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D886E1D-9A7C-4B5D-8E92-2373CF910927}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="1" activeTab="2" xr2:uid="{9B99CC55-A333-4B3D-AAE7-60B2FBD2224A}"/>
+    <workbookView xWindow="-21720" yWindow="7965" windowWidth="21840" windowHeight="13020" firstSheet="1" activeTab="2" xr2:uid="{9B99CC55-A333-4B3D-AAE7-60B2FBD2224A}"/>
   </bookViews>
   <sheets>
     <sheet name="F405VG" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="388">
   <si>
     <t>Pin</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1547,6 +1547,46 @@
   </si>
   <si>
     <t>1-8通道的量程范围</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC Range</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADC量程</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>±2.5V</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>±6.25V</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>±10V</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>±5V</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>±12.5V</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>±20.0V</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-5V</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-10V</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1656,7 +1696,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1677,6 +1717,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2002,11 +2045,11 @@
   <dimension ref="A1:Q101"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="6930" ySplit="855" topLeftCell="J1" activePane="bottomRight"/>
+      <pane xSplit="6930" ySplit="855" topLeftCell="A19" activePane="bottomRight"/>
       <selection activeCell="O62" sqref="O62"/>
       <selection pane="topRight" activeCell="Q1" sqref="Q1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8:B8"/>
-      <selection pane="bottomRight" activeCell="Q8" sqref="Q8"/>
+      <selection pane="bottomRight" activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4277,10 +4320,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73F016A4-B1D3-4DD6-A607-D0EBB6640462}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4289,9 +4332,11 @@
     <col min="4" max="4" width="42.875" customWidth="1"/>
     <col min="7" max="7" width="18.75" customWidth="1"/>
     <col min="8" max="8" width="25" customWidth="1"/>
+    <col min="10" max="10" width="12.5" customWidth="1"/>
+    <col min="11" max="11" width="31.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>344</v>
       </c>
@@ -4313,8 +4358,14 @@
       <c r="H1" s="5" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>340</v>
       </c>
@@ -4328,7 +4379,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="F3" s="5" t="s">
         <v>362</v>
       </c>
@@ -4338,8 +4389,14 @@
       <c r="H3" s="5" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J3" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>0</v>
       </c>
@@ -4361,15 +4418,27 @@
       <c r="H4" s="4" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="F5" s="4">
         <v>6</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J5" s="4">
+        <v>1</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -4391,8 +4460,14 @@
       <c r="H6" s="4" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J6" s="4">
+        <v>2</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>346</v>
       </c>
@@ -4414,8 +4489,14 @@
       <c r="H7" s="4" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J7" s="4">
+        <v>3</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>349</v>
       </c>
@@ -4428,8 +4509,14 @@
       <c r="D8" s="4" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J8" s="4">
+        <v>4</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>337</v>
       </c>
@@ -4442,8 +4529,22 @@
       <c r="D9" s="4" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J9" s="4">
+        <v>5</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="J10" s="4">
+        <v>6</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>2</v>
       </c>
@@ -4456,8 +4557,14 @@
       <c r="D11" s="5" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J11" s="4">
+        <v>7</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>346</v>
       </c>
@@ -4471,7 +4578,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>352</v>
       </c>
@@ -4485,7 +4592,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>337</v>
       </c>
@@ -4499,7 +4606,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
         <v>3</v>
       </c>
@@ -4507,36 +4614,36 @@
         <v>356</v>
       </c>
       <c r="C16" s="5">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>336</v>
+        <v>368</v>
       </c>
       <c r="C17" s="4">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>337</v>
+        <v>362</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="C18" s="4">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>353</v>
+        <v>364</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -4555,31 +4662,49 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>368</v>
+        <v>336</v>
       </c>
       <c r="C20" s="4">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>362</v>
+        <v>337</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>363</v>
+        <v>338</v>
       </c>
       <c r="C21" s="4">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>364</v>
-      </c>
+        <v>353</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/doc/NBV2_GPIO.xlsx
+++ b/doc/NBV2_GPIO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/971f4268de3e2582/科研要紧/NickelBird/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="411" documentId="13_ncr:1_{D48D8279-D192-4022-8AA3-94D21E562998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D886E1D-9A7C-4B5D-8E92-2373CF910927}"/>
+  <xr:revisionPtr revIDLastSave="412" documentId="13_ncr:1_{D48D8279-D192-4022-8AA3-94D21E562998}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1E7F73B-5567-48EA-9E8E-D1B4F85A167F}"/>
   <bookViews>
-    <workbookView xWindow="-21720" yWindow="7965" windowWidth="21840" windowHeight="13020" firstSheet="1" activeTab="2" xr2:uid="{9B99CC55-A333-4B3D-AAE7-60B2FBD2224A}"/>
+    <workbookView xWindow="-21720" yWindow="7965" windowWidth="21840" windowHeight="13020" firstSheet="1" activeTab="1" xr2:uid="{9B99CC55-A333-4B3D-AAE7-60B2FBD2224A}"/>
   </bookViews>
   <sheets>
     <sheet name="F405VG" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="388">
   <si>
     <t>Pin</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1696,7 +1696,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1718,9 +1718,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -1739,10 +1736,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4053,8 +4046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5260BC-F64C-4107-87D8-5CD17FB78CFB}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4187,7 +4180,9 @@
       <c r="C8" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>323</v>
+      </c>
       <c r="F8" s="2">
         <v>7</v>
       </c>
@@ -4320,10 +4315,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73F016A4-B1D3-4DD6-A607-D0EBB6640462}">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4688,24 +4683,6 @@
         <v>353</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
